--- a/misc/jam/QC Checklist.xlsx
+++ b/misc/jam/QC Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zohrab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pouya\SQL_Tutorial_My_Files\misc\jam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F21A16-AE8B-44CC-A4EA-CBDD406228AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFB9E8D-2470-46B2-8F98-A03C591F1AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>نام فرایند</t>
   </si>
@@ -317,12 +317,21 @@
   <si>
     <t>یوزرهای استفاده برای تست</t>
   </si>
+  <si>
+    <t>رضایت سنجی</t>
+  </si>
+  <si>
+    <t>پویا شیرعلی پور</t>
+  </si>
+  <si>
+    <t>پتروشیمی جم</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,17 +489,32 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -504,22 +528,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -826,10 +835,10 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="A84" sqref="A84:C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="2" customWidth="1"/>
@@ -839,7 +848,7 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -856,35 +865,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
@@ -892,187 +907,187 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:5" ht="54.75" customHeight="1">
+      <c r="A6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:5" ht="53.25" customHeight="1">
+      <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:5" ht="45" customHeight="1">
+      <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:5" ht="44.25" customHeight="1">
+      <c r="A9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:5" ht="36" customHeight="1">
+      <c r="A10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:5" ht="55.5" customHeight="1">
+      <c r="A11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:5" ht="55.5" customHeight="1">
+      <c r="A12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:5" ht="42" customHeight="1">
+      <c r="A13" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:5" ht="49.5" customHeight="1">
+      <c r="A14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:5" ht="41.25" customHeight="1">
+      <c r="A15" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:5" ht="59.25" customHeight="1">
+      <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:5" ht="25.5">
+      <c r="A18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:5" ht="25.5">
+      <c r="A19" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:5" ht="25.5">
+      <c r="A20" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:5" ht="25.5">
+      <c r="A21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="5"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:5" ht="37.5" customHeight="1">
+      <c r="A22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="5"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:5" ht="25.5">
+      <c r="A23" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="5"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A24" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:5" ht="54" customHeight="1">
+      <c r="A25" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="5"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="18" customHeight="1">
       <c r="A26" s="17" t="s">
         <v>19</v>
       </c>
@@ -1081,7 +1096,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="33.75" customHeight="1">
       <c r="A27" s="17" t="s">
         <v>21</v>
       </c>
@@ -1090,7 +1105,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="54.75" customHeight="1">
       <c r="A28" s="17" t="s">
         <v>81</v>
       </c>
@@ -1099,7 +1114,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="40.5" customHeight="1">
       <c r="A29" s="17" t="s">
         <v>77</v>
       </c>
@@ -1108,7 +1123,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="36.75" customHeight="1">
       <c r="A30" s="17" t="s">
         <v>22</v>
       </c>
@@ -1117,7 +1132,7 @@
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" ht="25.5">
       <c r="A31" s="17" t="s">
         <v>23</v>
       </c>
@@ -1126,7 +1141,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" ht="25.5">
       <c r="A32" s="17" t="s">
         <v>24</v>
       </c>
@@ -1135,7 +1150,7 @@
       <c r="D32" s="5"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" ht="25.5">
       <c r="A33" s="17" t="s">
         <v>25</v>
       </c>
@@ -1144,7 +1159,7 @@
       <c r="D33" s="5"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" ht="25.5">
       <c r="A34" s="17" t="s">
         <v>26</v>
       </c>
@@ -1153,7 +1168,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" ht="25.5">
       <c r="A35" s="17" t="s">
         <v>27</v>
       </c>
@@ -1162,7 +1177,7 @@
       <c r="D35" s="5"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" ht="25.5">
       <c r="A36" s="17" t="s">
         <v>28</v>
       </c>
@@ -1171,7 +1186,7 @@
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" ht="39" customHeight="1">
       <c r="A37" s="17" t="s">
         <v>29</v>
       </c>
@@ -1180,7 +1195,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" ht="25.5">
       <c r="A38" s="17" t="s">
         <v>30</v>
       </c>
@@ -1189,7 +1204,7 @@
       <c r="D38" s="5"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" ht="41.25" customHeight="1">
       <c r="A39" s="17" t="s">
         <v>31</v>
       </c>
@@ -1198,7 +1213,7 @@
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" ht="38.25" customHeight="1">
       <c r="A40" s="17" t="s">
         <v>82</v>
       </c>
@@ -1207,7 +1222,7 @@
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" ht="36.75" customHeight="1">
       <c r="A41" s="17" t="s">
         <v>20</v>
       </c>
@@ -1216,7 +1231,7 @@
       <c r="D41" s="5"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" ht="38.25" customHeight="1">
       <c r="A42" s="17" t="s">
         <v>34</v>
       </c>
@@ -1225,25 +1240,25 @@
       <c r="D42" s="5"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="18" t="s">
+    <row r="43" spans="1:5" ht="25.5">
+      <c r="A43" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="5"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="18" t="s">
+    <row r="44" spans="1:5" ht="25.5">
+      <c r="A44" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="5"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" ht="37.5" customHeight="1">
       <c r="A45" s="17" t="s">
         <v>37</v>
       </c>
@@ -1252,34 +1267,34 @@
       <c r="D45" s="5"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="18" t="s">
+    <row r="46" spans="1:5" ht="25.5">
+      <c r="A46" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="5"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="18" t="s">
+    <row r="47" spans="1:5" ht="25.5">
+      <c r="A47" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="5"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="18" t="s">
+    <row r="48" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A48" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" ht="39" customHeight="1">
       <c r="A49" s="17" t="s">
         <v>41</v>
       </c>
@@ -1288,16 +1303,16 @@
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="18" t="s">
+    <row r="50" spans="1:5" ht="25.5">
+      <c r="A50" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="5"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" ht="40.5" customHeight="1">
       <c r="A51" s="17" t="s">
         <v>83</v>
       </c>
@@ -1306,43 +1321,43 @@
       <c r="D51" s="5"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="18" t="s">
+    <row r="52" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A52" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="5"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="18" t="s">
+    <row r="53" spans="1:5" ht="20.25" customHeight="1">
+      <c r="A53" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
       <c r="D53" s="5"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="18" t="s">
+    <row r="54" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A54" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="5"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="18" t="s">
+    <row r="55" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A55" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="5"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" ht="35.25" customHeight="1">
       <c r="A56" s="17" t="s">
         <v>49</v>
       </c>
@@ -1351,25 +1366,25 @@
       <c r="D56" s="5"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="18" t="s">
+    <row r="57" spans="1:5" ht="21" customHeight="1">
+      <c r="A57" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="5"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="18" t="s">
+    <row r="58" spans="1:5" ht="23.25" customHeight="1">
+      <c r="A58" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="5"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" ht="40.5" customHeight="1">
       <c r="A59" s="17" t="s">
         <v>84</v>
       </c>
@@ -1378,7 +1393,7 @@
       <c r="D59" s="5"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" ht="34.5" customHeight="1">
       <c r="A60" s="17" t="s">
         <v>52</v>
       </c>
@@ -1387,16 +1402,16 @@
       <c r="D60" s="5"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A61" s="18" t="s">
+    <row r="61" spans="1:5" ht="25.5">
+      <c r="A61" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="5"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" ht="33.75" customHeight="1">
       <c r="A62" s="17" t="s">
         <v>54</v>
       </c>
@@ -1405,7 +1420,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" ht="35.25" customHeight="1">
       <c r="A63" s="17" t="s">
         <v>55</v>
       </c>
@@ -1414,16 +1429,16 @@
       <c r="D63" s="5"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="18" t="s">
+    <row r="64" spans="1:5" ht="32.25" customHeight="1">
+      <c r="A64" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="5"/>
       <c r="E64" s="6"/>
     </row>
-    <row r="65" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" ht="35.25" customHeight="1">
       <c r="A65" s="17" t="s">
         <v>57</v>
       </c>
@@ -1432,7 +1447,7 @@
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
     </row>
-    <row r="66" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" ht="36.75" customHeight="1">
       <c r="A66" s="17" t="s">
         <v>58</v>
       </c>
@@ -1441,7 +1456,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" ht="40.5" customHeight="1">
       <c r="A67" s="17" t="s">
         <v>59</v>
       </c>
@@ -1450,16 +1465,16 @@
       <c r="D67" s="5"/>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="18" t="s">
+    <row r="68" spans="1:5" ht="25.5">
+      <c r="A68" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
       <c r="D68" s="5"/>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" ht="36.75" customHeight="1">
       <c r="A69" s="17" t="s">
         <v>61</v>
       </c>
@@ -1468,7 +1483,7 @@
       <c r="D69" s="5"/>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" ht="36.75" customHeight="1">
       <c r="A70" s="17" t="s">
         <v>85</v>
       </c>
@@ -1477,25 +1492,25 @@
       <c r="D70" s="5"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A71" s="18" t="s">
+    <row r="71" spans="1:5" ht="25.5">
+      <c r="A71" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
       <c r="D71" s="5"/>
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A72" s="18" t="s">
+    <row r="72" spans="1:5" ht="25.5">
+      <c r="A72" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
     </row>
-    <row r="73" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" ht="36" customHeight="1">
       <c r="A73" s="17" t="s">
         <v>64</v>
       </c>
@@ -1504,70 +1519,70 @@
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A74" s="18" t="s">
+    <row r="74" spans="1:5" ht="25.5">
+      <c r="A74" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A75" s="18" t="s">
+    <row r="75" spans="1:5" ht="25.5">
+      <c r="A75" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
       <c r="D75" s="5"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A76" s="18" t="s">
+    <row r="76" spans="1:5" ht="25.5">
+      <c r="A76" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A77" s="18" t="s">
+    <row r="77" spans="1:5" ht="25.5">
+      <c r="A77" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
       <c r="D77" s="5"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A78" s="18" t="s">
+    <row r="78" spans="1:5" ht="25.5">
+      <c r="A78" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
       <c r="D78" s="5"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A79" s="18" t="s">
+    <row r="79" spans="1:5" ht="25.5">
+      <c r="A79" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
       <c r="D79" s="5"/>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A80" s="18" t="s">
+    <row r="80" spans="1:5" ht="25.5">
+      <c r="A80" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" ht="40.5" customHeight="1">
       <c r="A81" s="17" t="s">
         <v>72</v>
       </c>
@@ -1576,7 +1591,7 @@
       <c r="D81" s="5"/>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" ht="33" customHeight="1">
       <c r="A82" s="17" t="s">
         <v>73</v>
       </c>
@@ -1585,7 +1600,7 @@
       <c r="D82" s="5"/>
       <c r="E82" s="6"/>
     </row>
-    <row r="83" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" ht="34.5" customHeight="1">
       <c r="A83" s="17" t="s">
         <v>74</v>
       </c>
@@ -1594,129 +1609,129 @@
       <c r="D83" s="5"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
+    <row r="84" spans="1:5" ht="25.5">
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
+    <row r="85" spans="1:5" ht="25.5">
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
     </row>
-    <row r="86" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
+    <row r="86" spans="1:5" ht="25.5">
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
+    <row r="87" spans="1:5" ht="25.5">
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
       <c r="D87" s="5"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
+    <row r="88" spans="1:5" ht="25.5">
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
       <c r="D88" s="5"/>
       <c r="E88" s="6"/>
     </row>
-    <row r="89" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
+    <row r="89" spans="1:5" ht="25.5">
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
+    <row r="90" spans="1:5" ht="25.5">
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
       <c r="D90" s="5"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
+    <row r="91" spans="1:5" ht="25.5">
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
       <c r="D91" s="5"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="12"/>
+    <row r="92" spans="1:5" ht="25.5">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="14"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="12"/>
+    <row r="93" spans="1:5" ht="25.5">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="14"/>
       <c r="D93" s="5"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="12"/>
+    <row r="94" spans="1:5" ht="25.5">
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="14"/>
       <c r="D94" s="5"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="12"/>
+    <row r="95" spans="1:5" ht="25.5">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="14"/>
       <c r="D95" s="5"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="12"/>
+    <row r="96" spans="1:5" ht="25.5">
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="14"/>
       <c r="D96" s="5"/>
       <c r="E96" s="6"/>
     </row>
-    <row r="97" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="12"/>
+    <row r="97" spans="1:5" ht="25.5">
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="14"/>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
     </row>
-    <row r="98" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="12"/>
+    <row r="98" spans="1:5" ht="25.5">
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="14"/>
       <c r="D98" s="5"/>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="12"/>
+    <row r="99" spans="1:5" ht="25.5">
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="14"/>
       <c r="D99" s="5"/>
       <c r="E99" s="6"/>
     </row>
-    <row r="100" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="12"/>
+    <row r="100" spans="1:5" ht="25.5">
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="14"/>
       <c r="D100" s="5"/>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="12"/>
+    <row r="101" spans="1:5" ht="25.5">
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="14"/>
       <c r="D101" s="5"/>
       <c r="E101" s="6"/>
     </row>
@@ -1726,21 +1741,94 @@
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="99">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A93:C93"/>
     <mergeCell ref="A94:C94"/>
     <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
     <mergeCell ref="A84:C84"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:C86"/>
@@ -1752,79 +1840,6 @@
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="A79:C79"/>
     <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:C1048576 A1:C2 A4">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>

--- a/misc/jam/QC Checklist.xlsx
+++ b/misc/jam/QC Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pouya\SQL_Tutorial_My_Files\misc\jam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFB9E8D-2470-46B2-8F98-A03C591F1AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E614DEEB-277D-4337-B516-0428F83040DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>نام فرایند</t>
   </si>
@@ -325,6 +325,19 @@
   </si>
   <si>
     <t>پتروشیمی جم</t>
+  </si>
+  <si>
+    <t>در هنگام ثبت فرایند رضایت سنجی، موقع اضافه کردن
+ مشتری ماکسیمم فقط 19 تا 19 تا می توانیم اضافه کنیم.</t>
+  </si>
+  <si>
+    <t>در موقع ثبت فرایند فیلدهای نوع مشتری و محصول همیشه در کادر قرمز رنگ هستند و همچنین نوع رضایت سنجی تحقیقات بازار تکمیل نمی شود چون در انتخاب جامعه هدف مشتری موجود نمی باشد</t>
+  </si>
+  <si>
+    <t>در مرحله ویرایش، سوالات و محصولات انتخابی و فیلد نوع محصول حذف شده بود.</t>
+  </si>
+  <si>
+    <t>درفرم جست و جوی پیشرفته رضایت سنجی در هنگام جست و جو با کد فرایند با هنگ مواجه می شویم.</t>
   </si>
 </sst>
 </file>
@@ -465,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -489,6 +502,36 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -501,35 +544,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:C84"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A81" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -879,27 +895,27 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
@@ -908,830 +924,836 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="45" customHeight="1">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="36" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="55.5" customHeight="1">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="55.5" customHeight="1">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="42" customHeight="1">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="49.5" customHeight="1">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="59.25" customHeight="1">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="25.5">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="25.5">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="25.5">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="25.5">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="5"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="5"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="25.5">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="5"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="54" customHeight="1">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="5"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="5"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="25.5">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="25.5">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="5"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="25.5">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="5"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="25.5">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="5"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="25.5">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="5"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="25.5">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="39" customHeight="1">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="25.5">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="5"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="5"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="5"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="25.5">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="5"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="25.5">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="5"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="5"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="25.5">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="5"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="25.5">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="5"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="39" customHeight="1">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="25.5">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="5"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="5"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="5"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="5"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="5"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="5"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="5"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="21" customHeight="1">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="5"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="5"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="5"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
       <c r="D60" s="5"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="25.5">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="5"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="5"/>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="5"/>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
       <c r="D67" s="5"/>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5" ht="25.5">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
       <c r="D68" s="5"/>
       <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
       <c r="D69" s="5"/>
       <c r="E69" s="6"/>
     </row>
     <row r="70" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
       <c r="D70" s="5"/>
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" ht="25.5">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="5"/>
       <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" ht="25.5">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" ht="36" customHeight="1">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
     </row>
     <row r="74" spans="1:5" ht="25.5">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" ht="25.5">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
       <c r="D75" s="5"/>
       <c r="E75" s="6"/>
     </row>
     <row r="76" spans="1:5" ht="25.5">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" ht="25.5">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
       <c r="D77" s="5"/>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" ht="25.5">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
       <c r="D78" s="5"/>
       <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" ht="25.5">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
       <c r="D79" s="5"/>
       <c r="E79" s="6"/>
     </row>
     <row r="80" spans="1:5" ht="25.5">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A81" s="17" t="s">
+      <c r="A81" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
       <c r="D81" s="5"/>
       <c r="E81" s="6"/>
     </row>
     <row r="82" spans="1:5" ht="33" customHeight="1">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
       <c r="D82" s="5"/>
       <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
       <c r="D83" s="5"/>
       <c r="E83" s="6"/>
     </row>
-    <row r="84" spans="1:5" ht="25.5">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
+    <row r="84" spans="1:5" ht="85.5">
+      <c r="A84" s="23" t="s">
+        <v>90</v>
+      </c>
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" ht="25.5">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
+      <c r="A85" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
     </row>
     <row r="86" spans="1:5" ht="25.5">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
+      <c r="A86" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" ht="25.5">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
+      <c r="A87" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="16"/>
+      <c r="C87" s="17"/>
       <c r="D87" s="5"/>
       <c r="E87" s="6"/>
     </row>
     <row r="88" spans="1:5" ht="25.5">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
       <c r="D88" s="5"/>
       <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5" ht="25.5">
-      <c r="A89" s="15"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
     </row>
     <row r="90" spans="1:5" ht="25.5">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
       <c r="D90" s="5"/>
       <c r="E90" s="6"/>
     </row>
     <row r="91" spans="1:5" ht="25.5">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
       <c r="D91" s="5"/>
       <c r="E91" s="6"/>
     </row>
     <row r="92" spans="1:5" ht="25.5">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="14"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="17"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:5" ht="25.5">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="14"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="17"/>
       <c r="D93" s="5"/>
       <c r="E93" s="6"/>
     </row>
     <row r="94" spans="1:5" ht="25.5">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="14"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="17"/>
       <c r="D94" s="5"/>
       <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:5" ht="25.5">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="14"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="17"/>
       <c r="D95" s="5"/>
       <c r="E95" s="6"/>
     </row>
     <row r="96" spans="1:5" ht="25.5">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="14"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="17"/>
       <c r="D96" s="5"/>
       <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:5" ht="25.5">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="14"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="17"/>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
     </row>
     <row r="98" spans="1:5" ht="25.5">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="14"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="17"/>
       <c r="D98" s="5"/>
       <c r="E98" s="6"/>
     </row>
     <row r="99" spans="1:5" ht="25.5">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="14"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="17"/>
       <c r="D99" s="5"/>
       <c r="E99" s="6"/>
     </row>
     <row r="100" spans="1:5" ht="25.5">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="14"/>
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="17"/>
       <c r="D100" s="5"/>
       <c r="E100" s="6"/>
     </row>
     <row r="101" spans="1:5" ht="25.5">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="14"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="17"/>
       <c r="D101" s="5"/>
       <c r="E101" s="6"/>
     </row>
@@ -1740,7 +1762,91 @@
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="99">
+  <mergeCells count="98">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A23:C23"/>
@@ -1755,96 +1861,11 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A78:C78"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:C1048576 A1:C2 A4">
+  <conditionalFormatting sqref="A5:C83 A85:C1048576 A1:C2 A4">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C101">
+  <conditionalFormatting sqref="A5:C83 A85:C101">
     <cfRule type="duplicateValues" dxfId="0" priority="130"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/misc/jam/QC Checklist.xlsx
+++ b/misc/jam/QC Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pouya\SQL_Tutorial_My_Files\misc\jam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E614DEEB-277D-4337-B516-0428F83040DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCDE9AF-2760-4CE6-A89D-75642E0D1718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>نام فرایند</t>
   </si>
@@ -339,12 +339,42 @@
   <si>
     <t>درفرم جست و جوی پیشرفته رضایت سنجی در هنگام جست و جو با کد فرایند با هنگ مواجه می شویم.</t>
   </si>
+  <si>
+    <t>PR01-01‎‎-TBR02
+فرایند ثبت رضایت سنجی توسط ثبت کننده
+ اطلاعات رضایت سنجی</t>
+  </si>
+  <si>
+    <t>فیلد شرح سوال 98 کاراکتر بیشتر نمی پذیرد.</t>
+  </si>
+  <si>
+    <t>PR01-03‎-BR01
+فرم پایه تعریف سوالات رضایت سنجی توسط ادمین</t>
+  </si>
+  <si>
+    <t>PR01-01‎‎-TBR03
+فرایند ثبت رضایت سنجی توسط ثبت کننده
+ اطلاعات رضایت سنجی</t>
+  </si>
+  <si>
+    <t>ستون سوال مرجع نداریم</t>
+  </si>
+  <si>
+    <t>فیلد شرح سوال در مشتری صادراتی را توانستم به فارسی بنویسم.</t>
+  </si>
+  <si>
+    <t>PR01-03‎-BR05
+جستجو پیشرفته رضایت سنجی</t>
+  </si>
+  <si>
+    <t>مقادیر گردش های فرایند بین کاربران نماش داده نمی شود.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +413,11 @@
       <color theme="1"/>
       <name val="B Nazanin"/>
       <charset val="178"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
     </font>
   </fonts>
   <fills count="4">
@@ -478,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,6 +537,36 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -517,35 +582,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A81" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:C83"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -895,27 +936,27 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
@@ -924,836 +965,854 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="53.25" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="45" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="36" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="55.5" customHeight="1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="55.5" customHeight="1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="42" customHeight="1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="49.5" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="59.25" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="25.5">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="25.5">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="7"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="25.5">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="25.5">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="5"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="5"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="25.5">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="5"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="54" customHeight="1">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="5"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="18" customHeight="1">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="5"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="54.75" customHeight="1">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="25.5">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="25.5">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="5"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="25.5">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="5"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="25.5">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
       <c r="D34" s="5"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="25.5">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="5"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="25.5">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="39" customHeight="1">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="25.5">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="5"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="5"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="38.25" customHeight="1">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="5"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="25.5">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="5"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="25.5">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="5"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="5"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="25.5">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="5"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="25.5">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="5"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
       <c r="D48" s="5"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="39" customHeight="1">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="5"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="25.5">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="5"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="5"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="5"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="5"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="5"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
       <c r="D55" s="5"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
       <c r="D56" s="5"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="21" customHeight="1">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
       <c r="D57" s="5"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
       <c r="D58" s="5"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="5"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
       <c r="D60" s="5"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="25.5">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="5"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" ht="33.75" customHeight="1">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="5"/>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
       <c r="D64" s="5"/>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="5"/>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5" ht="25.5">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
       <c r="D68" s="5"/>
       <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="5"/>
       <c r="E69" s="6"/>
     </row>
     <row r="70" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
       <c r="D70" s="5"/>
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" ht="25.5">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
       <c r="D71" s="5"/>
       <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" ht="25.5">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
       <c r="D72" s="5"/>
       <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" ht="36" customHeight="1">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
     </row>
     <row r="74" spans="1:5" ht="25.5">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" ht="25.5">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
       <c r="D75" s="5"/>
       <c r="E75" s="6"/>
     </row>
     <row r="76" spans="1:5" ht="25.5">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" ht="25.5">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
       <c r="D77" s="5"/>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" ht="25.5">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
       <c r="D78" s="5"/>
       <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" ht="25.5">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
       <c r="D79" s="5"/>
       <c r="E79" s="6"/>
     </row>
     <row r="80" spans="1:5" ht="25.5">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:5" ht="40.5" customHeight="1">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
       <c r="D81" s="5"/>
       <c r="E81" s="6"/>
     </row>
     <row r="82" spans="1:5" ht="33" customHeight="1">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
       <c r="D82" s="5"/>
       <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
       <c r="D83" s="5"/>
       <c r="E83" s="6"/>
     </row>
     <row r="84" spans="1:5" ht="85.5">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D84" s="5"/>
-      <c r="E84" s="6"/>
+      <c r="E84" s="25" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="85" spans="1:5" ht="25.5">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
     </row>
     <row r="86" spans="1:5" ht="25.5">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" ht="25.5">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="16"/>
-      <c r="C87" s="17"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="15"/>
       <c r="D87" s="5"/>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="1:5" ht="25.5">
-      <c r="A88" s="18"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
+    <row r="88" spans="1:5" ht="28.5">
+      <c r="A88" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
       <c r="D88" s="5"/>
-      <c r="E88" s="6"/>
-    </row>
-    <row r="89" spans="1:5" ht="25.5">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
+      <c r="E88" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="42.75">
+      <c r="A89" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
       <c r="D89" s="5"/>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="90" spans="1:5" ht="25.5">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
+      <c r="E89" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="42.75">
+      <c r="A90" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
       <c r="D90" s="5"/>
-      <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="1:5" ht="25.5">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
+      <c r="E90" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="28.5">
+      <c r="A91" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
       <c r="D91" s="5"/>
-      <c r="E91" s="6"/>
+      <c r="E91" s="25" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="92" spans="1:5" ht="25.5">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="17"/>
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="15"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:5" ht="25.5">
-      <c r="A93" s="16"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="17"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="15"/>
       <c r="D93" s="5"/>
       <c r="E93" s="6"/>
     </row>
     <row r="94" spans="1:5" ht="25.5">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="17"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="15"/>
       <c r="D94" s="5"/>
       <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:5" ht="25.5">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="17"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="15"/>
       <c r="D95" s="5"/>
       <c r="E95" s="6"/>
     </row>
     <row r="96" spans="1:5" ht="25.5">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="17"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
       <c r="D96" s="5"/>
       <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:5" ht="25.5">
-      <c r="A97" s="16"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="17"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="15"/>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
     </row>
     <row r="98" spans="1:5" ht="25.5">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="17"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="15"/>
       <c r="D98" s="5"/>
       <c r="E98" s="6"/>
     </row>
     <row r="99" spans="1:5" ht="25.5">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="17"/>
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
       <c r="D99" s="5"/>
       <c r="E99" s="6"/>
     </row>
     <row r="100" spans="1:5" ht="25.5">
-      <c r="A100" s="16"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="17"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="15"/>
       <c r="D100" s="5"/>
       <c r="E100" s="6"/>
     </row>
     <row r="101" spans="1:5" ht="25.5">
-      <c r="A101" s="16"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="17"/>
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="15"/>
       <c r="D101" s="5"/>
       <c r="E101" s="6"/>
     </row>
@@ -1763,6 +1822,88 @@
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="98">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A93:C93"/>
@@ -1778,89 +1919,7 @@
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="A79:C79"/>
     <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C100"/>
     <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:C83 A85:C1048576 A1:C2 A4">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
@@ -1869,5 +1928,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="130"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>